--- a/src/inseadTesting/TestData.xlsx
+++ b/src/inseadTesting/TestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="4425" windowWidth="17265" windowHeight="2445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17865" windowHeight="6285" tabRatio="445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Regression from PS" sheetId="2" r:id="rId2"/>
     <sheet name="Regression from MY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4683,7 +4683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4694,13 +4694,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="130.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
@@ -4962,7 +4962,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>58</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" s="43" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A178" s="54" t="s">
         <v>244</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" s="43" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A179" s="54" t="s">
         <v>245</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" s="43" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A181" s="54" t="s">
         <v>288</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>413607</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" s="43" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A182" s="54" t="s">
         <v>289</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>415280</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" s="43" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A183" s="54" t="s">
         <v>290</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>415642</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" s="43" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A184" s="54" t="s">
         <v>291</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>413537</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" s="43" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A185" s="54" t="s">
         <v>292</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>277063</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" s="43" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A186" s="54" t="s">
         <v>293</v>
       </c>
@@ -6896,8 +6896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9317,7 +9317,7 @@
         <v>439</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>452</v>
+        <v>58</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>422</v>
